--- a/07. 系统验证/域聪UAT测试计划.xlsx
+++ b/07. 系统验证/域聪UAT测试计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ce9b1e7335ee45f/NetSuite/projects/Implementation/Yaye/07. 系统验证/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{D6109060-FEB6-1A4C-ADD6-3029EAA4A308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BB41208-6767-7D41-BB46-7A9D81FBF77C}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{D6109060-FEB6-1A4C-ADD6-3029EAA4A308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD2B4175-0E44-2940-8ACA-D3B71AB85152}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{FB62DBED-92C1-584C-AB79-D07C0438C4FD}"/>
   </bookViews>
@@ -261,7 +261,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +361,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +698,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1285,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1303,6 +1312,7 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>